--- a/Data/Output/ExtractedData.xlsx
+++ b/Data/Output/ExtractedData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovalaus-my.sharepoint.com/personal/jordi_innovalaus_com/Documents/I+D/Proves i documentació varia/Carla proves/UiPath Workflows/Calculate Client Security Hash/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovalaus-my.sharepoint.com/personal/jordi_innovalaus_com/Documents/I+D/Proves i documentació varia/Carla proves/UiPath Workflows/Calculate Client Security Hash/Data/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7B329A0F-5D1A-4F18-81DC-F4BE90387F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBCCA6B-5D14-432C-AB3C-5A2471AE4208}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7B329A0F-5D1A-4F18-81DC-F4BE90387F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C659B13B-20AE-4212-97E1-E5AF0D8AE657}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Work Items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,11 +339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Output/ExtractedData.xlsx
+++ b/Data/Output/ExtractedData.xlsx
@@ -1,77 +1,250 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovalaus-my.sharepoint.com/personal/jordi_innovalaus_com/Documents/I+D/Proves i documentació varia/Carla proves/UiPath Workflows/Calculate Client Security Hash/Data/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7B329A0F-5D1A-4F18-81DC-F4BE90387F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C659B13B-20AE-4212-97E1-E5AF0D8AE657}"/>
-  <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Work Items" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B329A0F-5D1A-4F18-81DC-F4BE90387F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9402E33E-3416-4DB1-A362-D6D60A8205BB}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Work Items" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <x:si>
+    <x:t>Actions Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calculate Client Security Hash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WI5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-01-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-04-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96118757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96118757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-28</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,15 +509,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="G20" sqref="G20 G20:H20"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="18.171562" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Output/ExtractedData.xlsx
+++ b/Data/Output/ExtractedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovalaus-my.sharepoint.com/personal/jordi_innovalaus_com/Documents/I+D/Proves i documentació varia/Carla proves/UiPath Workflows/Calculate Client Security Hash/Data/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innovalaus-my.sharepoint.com/personal/jordi_innovalaus_com/Documents/I+D/Proves i documentació varia/Carla proves/UiPath Workflows/Calculate Client Security Hash/Data/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B329A0F-5D1A-4F18-81DC-F4BE90387F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9402E33E-3416-4DB1-A362-D6D60A8205BB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B3D698FD-909B-4D98-A69D-CC270D9080F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7C4747-D6F7-094B-ADBC-C9E79E21C051}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="31500" yWindow="60" windowWidth="25400" windowHeight="15220" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Work Items" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <x:si>
     <x:t>Actions Url</x:t>
   </x:si>
@@ -46,10 +46,10 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118753</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118753</x:t>
+    <x:t>https://acme-test.uipath.com/work-items/96276850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276850</x:t>
   </x:si>
   <x:si>
     <x:t>Calculate Client Security Hash</x:t>
@@ -61,115 +61,88 @@
     <x:t>Open</x:t>
   </x:si>
   <x:si>
-    <x:t>2020-01-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-08-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-07-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-11-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118755</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118755</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-05-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-07-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-04-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/96118757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96118757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-04-28</x:t>
+    <x:t>2022-07-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-11-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-12-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/96276847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96276847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-24</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -179,18 +152,10 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="2" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color theme="10"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
@@ -220,19 +185,13 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </x:cellXfs>
-  <x:cellStyles count="2">
-    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,13 +475,13 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G20" sqref="G20 G20:H20"/>
+      <x:selection activeCell="F21" sqref="F21 A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.171562" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="24.874688" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
@@ -541,7 +500,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -561,7 +520,7 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -581,7 +540,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -601,7 +560,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -621,7 +580,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
+    <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -641,7 +600,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -661,7 +620,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -681,7 +640,7 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -701,7 +660,7 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -721,7 +680,7 @@
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
@@ -739,72 +698,12 @@
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
